--- a/results/I2_N10_T30_C275_0_P4_res.xlsx
+++ b/results/I2_N10_T30_C275_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.1589212663232</v>
+        <v>581.5593397042228</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.01799988746643066</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.36892126633407</v>
+        <v>33.08933970422287</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.129780822997035</v>
+        <v>5.336665625650533</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.129780822997035</v>
+        <v>5.336665625650533</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.04999999998908</v>
+        <v>487.1</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.74</v>
+        <v>61.37</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -744,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -755,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -766,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -777,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -788,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -857,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -890,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1017,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>22.61192465059683</v>
       </c>
     </row>
     <row r="4">
@@ -1025,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.09699127290008</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1033,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>24.04101472405137</v>
       </c>
     </row>
     <row r="6">
@@ -1049,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1057,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.34885527085025</v>
+        <v>24.38986999490162</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.60033324079215</v>
+        <v>22.01159140980468</v>
       </c>
     </row>
     <row r="10">
@@ -1081,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.94987179065702</v>
+        <v>24.76592070603971</v>
       </c>
     </row>
     <row r="12">
@@ -1089,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.61192465059683</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.52855135814675</v>
+        <v>27.87444125446785</v>
       </c>
     </row>
     <row r="14">
@@ -1105,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.67747572354109</v>
+        <v>27.05494035044573</v>
       </c>
     </row>
     <row r="15">
@@ -1113,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.71671453559703</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1181,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1173,10 +1195,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1187,15 +1209,43 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>109.9450000000008</v>
+        <v>313.6</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.5900000000008</v>
+        <v>331.91</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>113.2700000000008</v>
+        <v>320.63</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>119.1550000000008</v>
+        <v>336.425</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>115.8050000000008</v>
+        <v>315.985</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>236.8400000000015</v>
+        <v>81.47500000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>244.9650000000014</v>
+        <v>80.68000000000072</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>236.8400000000015</v>
+        <v>84.71500000000073</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>243.8100000000014</v>
+        <v>80.43500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>244.9650000000015</v>
+        <v>87.34500000000074</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.35</v>
+        <v>128.3950000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1419,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>30.90499999999942</v>
+        <v>116.7850000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.59499999999942</v>
+        <v>119.6300000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97499999999942</v>
+        <v>117.9250000000002</v>
       </c>
     </row>
     <row r="21">
@@ -1452,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>33.99499999999941</v>
+        <v>126.7800000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>216.7599999999988</v>
+        <v>72.6299999999995</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>216.7249999999988</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>199.5399999999987</v>
+        <v>82.31999999999948</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>218.1849999999988</v>
+        <v>83.9549999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>206.5849999999988</v>
+        <v>80.8149999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>69.88000000000022</v>
+        <v>62.63000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>76.32000000000022</v>
+        <v>70.92000000000021</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>72.41000000000021</v>
+        <v>67.65500000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>72.64500000000022</v>
+        <v>66.84500000000021</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>72.89000000000021</v>
+        <v>65.41000000000022</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1299999999993</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="33">
@@ -1584,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>136.6699999999993</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>117.2199999999993</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>134.2299999999993</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="36">
@@ -1617,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>125.7699999999993</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="37">
@@ -1628,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>193.0200000000017</v>
+        <v>203.655</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>202.3100000000017</v>
+        <v>214.32</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>191.2450000000017</v>
+        <v>207.36</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>208.9250000000017</v>
+        <v>217.27</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>197.6600000000017</v>
+        <v>200.18</v>
       </c>
     </row>
     <row r="42">
@@ -1683,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>284.6849999999982</v>
+        <v>140.5549999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1694,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>295.8849999999982</v>
+        <v>159.2149999999989</v>
       </c>
     </row>
     <row r="44">
@@ -1705,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>259.3599999999981</v>
+        <v>142.1399999999989</v>
       </c>
     </row>
     <row r="45">
@@ -1716,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>281.9549999999982</v>
+        <v>147.7249999999989</v>
       </c>
     </row>
     <row r="46">
@@ -1727,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>265.5149999999982</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>155.3650000000007</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="48">
@@ -1749,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>164.2850000000007</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1760,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>152.1250000000007</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="50">
@@ -1771,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>163.3750000000007</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="51">
@@ -1782,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>157.6200000000007</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1793,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>250.970000000001</v>
+        <v>120.5799999999991</v>
       </c>
     </row>
     <row r="53">
@@ -1804,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>260.9900000000009</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="54">
@@ -1815,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>252.975000000001</v>
+        <v>129.3849999999991</v>
       </c>
     </row>
     <row r="55">
@@ -1826,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>269.580000000001</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="56">
@@ -1837,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>250.575000000001</v>
+        <v>118.3249999999991</v>
       </c>
     </row>
     <row r="57">
@@ -1848,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>284.6849999999982</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1859,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>295.8849999999982</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="59">
@@ -1870,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>259.3599999999981</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="60">
@@ -1881,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>281.9549999999982</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="61">
@@ -1892,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>265.5149999999982</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="62">
@@ -1903,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>236.8400000000015</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="63">
@@ -1914,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>244.9650000000014</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="64">
@@ -1925,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>236.8400000000015</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="65">
@@ -1936,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>243.8100000000014</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="66">
@@ -1947,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>244.9650000000015</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="67">
@@ -1958,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>250.970000000001</v>
+        <v>313.6</v>
       </c>
     </row>
     <row r="68">
@@ -1969,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>260.9900000000009</v>
+        <v>331.91</v>
       </c>
     </row>
     <row r="69">
@@ -1980,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>252.975000000001</v>
+        <v>320.63</v>
       </c>
     </row>
     <row r="70">
@@ -1991,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>269.580000000001</v>
+        <v>336.425</v>
       </c>
     </row>
     <row r="71">
@@ -2002,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>250.575000000001</v>
+        <v>315.985</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.684999999998182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2060,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>20.88499999999818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2082,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.954999999998181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2159,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="13">
@@ -2170,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.91</v>
       </c>
     </row>
     <row r="14">
@@ -2181,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>45.63</v>
       </c>
     </row>
     <row r="15">
@@ -2192,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>61.425</v>
       </c>
     </row>
     <row r="16">
@@ -2203,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>40.985</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2371,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2382,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2393,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2404,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2470,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
@@ -2492,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4.755</v>
       </c>
     </row>
     <row r="25">
@@ -2503,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="26">
@@ -2514,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="27">
@@ -2525,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2536,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>6.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2547,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2558,7 +2608,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>6.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2569,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2803,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2830,7 +2880,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2841,7 +2891,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2852,12 +2902,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T30_C275_0_P4_res.xlsx
+++ b/results/I2_N10_T30_C275_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.5593397042228</v>
+        <v>105.2975195577129</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01799988746643066</v>
+        <v>0.01600003242492676</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.08933970422287</v>
+        <v>39.03751955771288</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.336665625650533</v>
+        <v>0.6217041096856285</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.336665625650533</v>
+        <v>0.6217041096856285</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.1</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.37</v>
+        <v>60.09</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,56 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -810,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -901,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1039,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.61192465059683</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>26.53622368464729</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.04101472405137</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>23.82001308898281</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.38986999490162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.01159140980468</v>
+        <v>20.60033324079215</v>
       </c>
     </row>
     <row r="10">
@@ -1111,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>22.61192465059683</v>
       </c>
     </row>
     <row r="13">
@@ -1127,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.05494035044573</v>
+        <v>29.1167081352883</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>26.71671453559703</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,71 +1137,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>313.6</v>
+        <v>109.9450000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>331.91</v>
+        <v>117.5900000000008</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>320.63</v>
+        <v>113.2700000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1381,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>336.425</v>
+        <v>119.1550000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1392,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>315.985</v>
+        <v>115.8050000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1403,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>258.7350000000008</v>
       </c>
     </row>
     <row r="13">
@@ -1414,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>269.2400000000008</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>250.9150000000008</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>261.9150000000008</v>
       </c>
     </row>
     <row r="16">
@@ -1447,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>255.0150000000008</v>
       </c>
     </row>
     <row r="17">
@@ -1458,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>128.3950000000001</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="18">
@@ -1469,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>116.7850000000001</v>
+        <v>30.90499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1480,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>119.6300000000001</v>
+        <v>27.59499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1491,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>117.9250000000002</v>
+        <v>31.97499999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1502,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>126.7800000000001</v>
+        <v>33.99499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>72.6299999999995</v>
+        <v>112.9799999999989</v>
       </c>
     </row>
     <row r="23">
@@ -1524,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0549999999995</v>
+        <v>110.9600000000006</v>
       </c>
     </row>
     <row r="24">
@@ -1535,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>82.31999999999948</v>
+        <v>109.9149999999989</v>
       </c>
     </row>
     <row r="25">
@@ -1546,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>83.9549999999995</v>
+        <v>115.9300000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1557,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.8149999999995</v>
+        <v>114.8099999999989</v>
       </c>
     </row>
     <row r="27">
@@ -1568,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.63000000000022</v>
+        <v>177.2600000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1579,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>70.92000000000021</v>
+        <v>188.5600000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1590,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>67.65500000000021</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="30">
@@ -1601,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.84500000000021</v>
+        <v>181.4800000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>65.41000000000022</v>
+        <v>167.6700000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1623,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>235.775</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1634,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>229.025</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1645,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>213.42</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1656,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>226.76</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1667,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>221.56</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1678,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>203.655</v>
+        <v>193.0200000000017</v>
       </c>
     </row>
     <row r="38">
@@ -1689,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>214.32</v>
+        <v>202.3100000000017</v>
       </c>
     </row>
     <row r="39">
@@ -1700,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>207.36</v>
+        <v>191.2450000000017</v>
       </c>
     </row>
     <row r="40">
@@ -1711,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>217.27</v>
+        <v>208.9250000000017</v>
       </c>
     </row>
     <row r="41">
@@ -1722,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>200.18</v>
+        <v>197.6600000000017</v>
       </c>
     </row>
     <row r="42">
@@ -1733,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>140.5549999999989</v>
+        <v>180.9049999999983</v>
       </c>
     </row>
     <row r="43">
@@ -1744,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2149999999989</v>
+        <v>190.12</v>
       </c>
     </row>
     <row r="44">
@@ -1755,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>142.1399999999989</v>
+        <v>169.7349999999983</v>
       </c>
     </row>
     <row r="45">
@@ -1766,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>147.7249999999989</v>
+        <v>179.7</v>
       </c>
     </row>
     <row r="46">
@@ -1777,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>139.7449999999989</v>
+        <v>173.7399999999983</v>
       </c>
     </row>
     <row r="47">
@@ -1788,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>226.0399999999994</v>
+        <v>266.3899999999988</v>
       </c>
     </row>
     <row r="48">
@@ -1799,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>247.1799999999994</v>
+        <v>278.0850000000005</v>
       </c>
     </row>
     <row r="49">
@@ -1810,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>221.8549999999994</v>
+        <v>249.45</v>
       </c>
     </row>
     <row r="50">
@@ -1821,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>238.4549999999994</v>
+        <v>270.43</v>
       </c>
     </row>
     <row r="51">
@@ -1832,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>224.4749999999994</v>
+        <v>258.4699999999988</v>
       </c>
     </row>
     <row r="52">
@@ -1843,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>120.5799999999991</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1854,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>129.6</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="54">
@@ -1865,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>129.3849999999991</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1876,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>127.5</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1887,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>118.3249999999991</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1898,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>226.0399999999994</v>
+        <v>266.3899999999988</v>
       </c>
     </row>
     <row r="58">
@@ -1909,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>247.1799999999994</v>
+        <v>278.0850000000005</v>
       </c>
     </row>
     <row r="59">
@@ -1920,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>221.8549999999994</v>
+        <v>249.45</v>
       </c>
     </row>
     <row r="60">
@@ -1931,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>238.4549999999994</v>
+        <v>270.43</v>
       </c>
     </row>
     <row r="61">
@@ -1942,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>224.4749999999994</v>
+        <v>258.4699999999988</v>
       </c>
     </row>
     <row r="62">
@@ -1953,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>235.775</v>
+        <v>258.7350000000008</v>
       </c>
     </row>
     <row r="63">
@@ -1964,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>229.025</v>
+        <v>269.2400000000008</v>
       </c>
     </row>
     <row r="64">
@@ -1975,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>213.42</v>
+        <v>250.9150000000008</v>
       </c>
     </row>
     <row r="65">
@@ -1986,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>226.76</v>
+        <v>261.9150000000008</v>
       </c>
     </row>
     <row r="66">
@@ -1997,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>221.56</v>
+        <v>255.0150000000008</v>
       </c>
     </row>
     <row r="67">
@@ -2008,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>313.6</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="68">
@@ -2019,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>331.91</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="69">
@@ -2030,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>320.63</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="70">
@@ -2041,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>336.425</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="71">
@@ -2052,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>315.985</v>
+        <v>250.575000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.085</v>
       </c>
     </row>
     <row r="4">
@@ -2209,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>38.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2220,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>56.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2231,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>45.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2242,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>61.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2253,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>40.985</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="13">
@@ -2421,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2432,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="15">
@@ -2443,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.515</v>
       </c>
     </row>
     <row r="16">
@@ -2454,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="17">
@@ -2520,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2531,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2542,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>4.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2553,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2853,7 +2753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2880,56 +2780,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
